--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="118">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,166 +55,157 @@
     <t>disappointed</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>smaller</t>
+    <t>small</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>small</t>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>di</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>fl</t>
+    <t>fell</t>
   </si>
   <si>
     <t>paint</t>
   </si>
   <si>
-    <t>fell</t>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>less</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>thought</t>
+    <t>though</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
-    <t>stay</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>item</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>back</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>worked</t>
+    <t>product</t>
   </si>
   <si>
     <t>box</t>
   </si>
   <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>price</t>
+    <t>2</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>product</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>put</t>
   </si>
   <si>
     <t>could</t>
   </si>
   <si>
-    <t>expected</t>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>even</t>
   </si>
   <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>make</t>
   </si>
   <si>
     <t>little</t>
@@ -223,33 +214,33 @@
     <t>like</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>made</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>get</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>got</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -283,94 +274,97 @@
     <t>great</t>
   </si>
   <si>
-    <t>expansion</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>elf</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>learn</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
     <t>enjoyed</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
     <t>game</t>
   </si>
   <si>
+    <t>games</t>
+  </si>
+  <si>
     <t>book</t>
   </si>
   <si>
-    <t>games</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
     <t>cute</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
     <t>playing</t>
   </si>
   <si>
-    <t>play</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>son</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>year</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>good</t>
   </si>
   <si>
     <t>positive</t>
@@ -731,7 +725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -739,10 +733,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -800,13 +794,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -818,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -871,7 +865,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K4">
         <v>0.8923076923076924</v>
@@ -900,13 +894,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8169014084507042</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="C5">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D5">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -918,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K5">
         <v>0.8518518518518519</v>
@@ -950,13 +944,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.765625</v>
+        <v>0.78125</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -968,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K6">
         <v>0.8172043010752689</v>
@@ -1000,13 +994,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7365591397849462</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="C7">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D7">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1018,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K7">
-        <v>0.765625</v>
+        <v>0.703125</v>
       </c>
       <c r="L7">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M7">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1042,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1050,13 +1044,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7094594594594594</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C8">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1068,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K8">
         <v>0.6792452830188679</v>
@@ -1100,13 +1094,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7090909090909091</v>
+        <v>0.7135922330097088</v>
       </c>
       <c r="C9">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="D9">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1118,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K9">
         <v>0.6231884057971014</v>
@@ -1150,13 +1144,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6844660194174758</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C10">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1168,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K10">
-        <v>0.610632183908046</v>
+        <v>0.6068866571018652</v>
       </c>
       <c r="L10">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M10">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1189,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1200,13 +1194,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6571428571428571</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1218,19 +1212,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K11">
-        <v>0.578838174273859</v>
+        <v>0.5767634854771784</v>
       </c>
       <c r="L11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1242,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1250,13 +1244,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6218487394957983</v>
+        <v>0.6265060240963856</v>
       </c>
       <c r="C12">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1268,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K12">
-        <v>0.5450819672131147</v>
+        <v>0.5221311475409836</v>
       </c>
       <c r="L12">
-        <v>665</v>
+        <v>637</v>
       </c>
       <c r="M12">
-        <v>665</v>
+        <v>637</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1292,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>555</v>
+        <v>583</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1300,13 +1294,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5952380952380952</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1321,16 +1315,16 @@
         <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K13">
-        <v>0.5319148936170213</v>
+        <v>0.4905660377358491</v>
       </c>
       <c r="L13">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1342,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1350,13 +1344,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5855072463768116</v>
+        <v>0.6134453781512605</v>
       </c>
       <c r="C14">
-        <v>202</v>
+        <v>73</v>
       </c>
       <c r="D14">
-        <v>202</v>
+        <v>73</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1368,19 +1362,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K14">
-        <v>0.5283018867924528</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1392,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1400,13 +1394,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5740740740740741</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C15">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1421,16 +1415,16 @@
         <v>23</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K15">
-        <v>0.463855421686747</v>
+        <v>0.4416666666666667</v>
       </c>
       <c r="L15">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="M15">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1442,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1450,49 +1444,49 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5625</v>
+        <v>0.5784883720930233</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>199</v>
       </c>
       <c r="D16">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K16">
-        <v>0.4617737003058104</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="L16">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="M16">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>176</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1500,13 +1494,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5180722891566265</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C17">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1518,19 +1512,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K17">
-        <v>0.4497354497354497</v>
+        <v>0.4281345565749236</v>
       </c>
       <c r="L17">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="M17">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1542,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>104</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1550,13 +1544,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4888888888888889</v>
+        <v>0.5196850393700787</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1568,19 +1562,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K18">
-        <v>0.4083333333333333</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="L18">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="M18">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1592,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>71</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1621,16 +1615,16 @@
         <v>67</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K19">
-        <v>0.375</v>
+        <v>0.3203125</v>
       </c>
       <c r="L19">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="M19">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1642,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>40</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1650,13 +1644,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4645669291338583</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C20">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D20">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1668,19 +1662,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K20">
-        <v>0.375</v>
+        <v>0.2937062937062937</v>
       </c>
       <c r="L20">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M20">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1692,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1700,13 +1694,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4549763033175355</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C21">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1718,31 +1712,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K21">
-        <v>0.3253968253968254</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="L21">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="M21">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>85</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1750,13 +1744,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4444444444444444</v>
+        <v>0.4597156398104265</v>
       </c>
       <c r="C22">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="D22">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1768,19 +1762,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K22">
-        <v>0.2937062937062937</v>
+        <v>0.2735042735042735</v>
       </c>
       <c r="L22">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M22">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1792,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1800,13 +1794,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4444444444444444</v>
+        <v>0.4477611940298508</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1818,31 +1812,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K23">
-        <v>0.2730923694779117</v>
+        <v>0.2661290322580645</v>
       </c>
       <c r="L23">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="M23">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>181</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1850,13 +1844,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4310344827586207</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C24">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D24">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1868,19 +1862,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K24">
-        <v>0.2688172043010753</v>
+        <v>0.2473118279569892</v>
       </c>
       <c r="L24">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M24">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1892,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1900,7 +1894,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4285714285714285</v>
+        <v>0.421875</v>
       </c>
       <c r="C25">
         <v>27</v>
@@ -1918,31 +1912,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K25">
-        <v>0.2317180616740088</v>
+        <v>0.2409638554216867</v>
       </c>
       <c r="L25">
-        <v>263</v>
+        <v>60</v>
       </c>
       <c r="M25">
-        <v>269</v>
+        <v>60</v>
       </c>
       <c r="N25">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>872</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1950,49 +1944,49 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4259259259259259</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E26">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K26">
-        <v>0.2258064516129032</v>
+        <v>0.2253521126760563</v>
       </c>
       <c r="L26">
-        <v>28</v>
+        <v>256</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>261</v>
       </c>
       <c r="N26">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O26">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>96</v>
+        <v>880</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2003,10 +1997,10 @@
         <v>0.4</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2018,31 +2012,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K27">
-        <v>0.188034188034188</v>
+        <v>0.224</v>
       </c>
       <c r="L27">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M27">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2050,13 +2044,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3932584269662922</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="C28">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2068,31 +2062,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K28">
-        <v>0.1815642458100559</v>
+        <v>0.1727019498607242</v>
       </c>
       <c r="L28">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M28">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N28">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2100,13 +2094,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3894736842105263</v>
+        <v>0.3910891089108911</v>
       </c>
       <c r="C29">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="D29">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2118,10 +2112,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K29">
         <v>0.1635179153094463</v>
@@ -2150,13 +2144,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3880597014925373</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="C30">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D30">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2168,31 +2162,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K30">
-        <v>0.1558441558441558</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="L30">
         <v>24</v>
       </c>
       <c r="M30">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2200,7 +2194,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.360655737704918</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C31">
         <v>22</v>
@@ -2218,31 +2212,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K31">
-        <v>0.1528662420382166</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L31">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M31">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N31">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2250,13 +2244,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3564356435643564</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C32">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="D32">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2268,31 +2262,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K32">
-        <v>0.1501340482573726</v>
+        <v>0.1283422459893048</v>
       </c>
       <c r="L32">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="M32">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="N32">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>317</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2300,13 +2294,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3264248704663212</v>
+        <v>0.2797927461139896</v>
       </c>
       <c r="C33">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D33">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E33">
         <v>0.02</v>
@@ -2318,31 +2312,31 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K33">
-        <v>0.12109375</v>
+        <v>0.1185770750988142</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N33">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="O33">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2350,37 +2344,37 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.282051282051282</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C34">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="D34">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>56</v>
+        <v>231</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K34">
-        <v>0.1176470588235294</v>
+        <v>0.1038062283737024</v>
       </c>
       <c r="L34">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M34">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N34">
         <v>0.97</v>
@@ -2392,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>285</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2400,13 +2394,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2784810126582278</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="C35">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="D35">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2418,31 +2412,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>228</v>
+        <v>72</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K35">
-        <v>0.08724832214765101</v>
+        <v>0.09139784946236559</v>
       </c>
       <c r="L35">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M35">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="N35">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="O35">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2450,49 +2444,49 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2661870503597122</v>
+        <v>0.2577319587628866</v>
       </c>
       <c r="C36">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D36">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E36">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K36">
-        <v>0.08041958041958042</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="L36">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M36">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N36">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="O36">
-        <v>0.15</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>263</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2500,13 +2494,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.264957264957265</v>
+        <v>0.25</v>
       </c>
       <c r="C37">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D37">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2518,31 +2512,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K37">
-        <v>0.07942238267148015</v>
+        <v>0.0738255033557047</v>
       </c>
       <c r="L37">
         <v>22</v>
       </c>
       <c r="M37">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N37">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="O37">
-        <v>0.33</v>
+        <v>0.15</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>255</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2550,13 +2544,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2637362637362637</v>
+        <v>0.2463768115942029</v>
       </c>
       <c r="C38">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D38">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2568,31 +2562,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>67</v>
+        <v>208</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K38">
-        <v>0.06807511737089202</v>
+        <v>0.07173601147776183</v>
       </c>
       <c r="L38">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="M38">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="N38">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="O38">
-        <v>0.1899999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>397</v>
+        <v>647</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2600,13 +2594,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2563291139240506</v>
+        <v>0.2436708860759494</v>
       </c>
       <c r="C39">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D39">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2618,31 +2612,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K39">
-        <v>0.06561679790026247</v>
+        <v>0.06571428571428571</v>
       </c>
       <c r="L39">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M39">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N39">
-        <v>0.62</v>
+        <v>0.96</v>
       </c>
       <c r="O39">
-        <v>0.38</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>356</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2650,49 +2644,49 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.255</v>
+        <v>0.2434782608695652</v>
       </c>
       <c r="C40">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="D40">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K40">
-        <v>0.0505050505050505</v>
+        <v>0.0625</v>
       </c>
       <c r="L40">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N40">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="O40">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>470</v>
+        <v>525</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2700,49 +2694,49 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2523364485981308</v>
+        <v>0.2347417840375587</v>
       </c>
       <c r="C41">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D41">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K41">
-        <v>0.0466786355475763</v>
+        <v>0.06185567010309279</v>
       </c>
       <c r="L41">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M41">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N41">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="O41">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>531</v>
+        <v>364</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2750,49 +2744,49 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2473919523099851</v>
+        <v>0.2317979197622586</v>
       </c>
       <c r="C42">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D42">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E42">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F42">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K42">
-        <v>0.04310344827586207</v>
+        <v>0.05386416861826698</v>
       </c>
       <c r="L42">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M42">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N42">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="O42">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>666</v>
+        <v>404</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2800,13 +2794,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2448979591836735</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="C43">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D43">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2818,31 +2812,31 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="K43">
-        <v>0.0335195530726257</v>
+        <v>0.05252525252525252</v>
       </c>
       <c r="L43">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M43">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="N43">
-        <v>0.24</v>
+        <v>0.84</v>
       </c>
       <c r="O43">
-        <v>0.76</v>
+        <v>0.16</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>692</v>
+        <v>469</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2850,13 +2844,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2427536231884058</v>
+        <v>0.2</v>
       </c>
       <c r="C44">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="D44">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2868,7 +2862,31 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>209</v>
+        <v>140</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K44">
+        <v>0.03042876901798064</v>
+      </c>
+      <c r="L44">
+        <v>22</v>
+      </c>
+      <c r="M44">
+        <v>93</v>
+      </c>
+      <c r="N44">
+        <v>0.24</v>
+      </c>
+      <c r="O44">
+        <v>0.76</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>701</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2876,13 +2894,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2407407407407407</v>
+        <v>0.2</v>
       </c>
       <c r="C45">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D45">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2894,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>82</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2902,25 +2920,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2303664921465969</v>
+        <v>0.1995565410199557</v>
       </c>
       <c r="C46">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="D46">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>147</v>
+        <v>361</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2928,25 +2946,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2268041237113402</v>
+        <v>0.1947368421052632</v>
       </c>
       <c r="C47">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D47">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>75</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2954,25 +2972,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2228571428571429</v>
+        <v>0.1917293233082707</v>
       </c>
       <c r="C48">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D48">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>136</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2980,25 +2998,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2125984251968504</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="C49">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D49">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E49">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3006,25 +3024,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2052023121387283</v>
+        <v>0.1755102040816326</v>
       </c>
       <c r="C50">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D50">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E50">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F50">
-        <v>0.97</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>275</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3032,13 +3050,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2032967032967033</v>
+        <v>0.1518324607329843</v>
       </c>
       <c r="C51">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D51">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E51">
         <v>0.03</v>
@@ -3050,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3058,25 +3076,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1964679911699779</v>
+        <v>0.1493506493506493</v>
       </c>
       <c r="C52">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="D52">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="E52">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>364</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3084,13 +3102,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1910828025477707</v>
+        <v>0.1464968152866242</v>
       </c>
       <c r="C53">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D53">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3102,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3110,13 +3128,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1770833333333333</v>
+        <v>0.1464788732394366</v>
       </c>
       <c r="C54">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D54">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3128,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>158</v>
+        <v>303</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3136,25 +3154,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1685082872928177</v>
+        <v>0.145945945945946</v>
       </c>
       <c r="C55">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D55">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="E55">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="F55">
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>301</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3162,13 +3180,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1616541353383459</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C56">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D56">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E56">
         <v>0.02</v>
@@ -3180,7 +3198,7 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>223</v>
+        <v>312</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3188,13 +3206,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1481481481481481</v>
+        <v>0.1371841155234657</v>
       </c>
       <c r="C57">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D57">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E57">
         <v>0.07000000000000001</v>
@@ -3206,7 +3224,7 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>299</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3214,25 +3232,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.139344262295082</v>
+        <v>0.1264367816091954</v>
       </c>
       <c r="C58">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D58">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E58">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="F58">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>210</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3240,25 +3258,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1304347826086956</v>
+        <v>0.1164383561643836</v>
       </c>
       <c r="C59">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D59">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E59">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="F59">
-        <v>0.9</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>240</v>
+        <v>387</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3266,25 +3284,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1230769230769231</v>
+        <v>0.1098169717138103</v>
       </c>
       <c r="C60">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D60">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E60">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="F60">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>171</v>
+        <v>535</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3292,25 +3310,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1223404255319149</v>
+        <v>0.09196891191709844</v>
       </c>
       <c r="C61">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="D61">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="E61">
-        <v>0.04</v>
+        <v>0.24</v>
       </c>
       <c r="F61">
-        <v>0.96</v>
+        <v>0.76</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>165</v>
+        <v>701</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3318,25 +3336,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1196388261851016</v>
+        <v>0.0913312693498452</v>
       </c>
       <c r="C62">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D62">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E62">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="F62">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>390</v>
+        <v>587</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3344,25 +3362,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1118530884808013</v>
+        <v>0.08983451536643026</v>
       </c>
       <c r="C63">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="D63">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="E63">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="F63">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>532</v>
+        <v>385</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3370,25 +3388,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1019108280254777</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="C64">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D64">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E64">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F64">
-        <v>0.91</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3396,25 +3414,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1012987012987013</v>
+        <v>0.07819905213270142</v>
       </c>
       <c r="C65">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="D65">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="E65">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="F65">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>692</v>
+        <v>389</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3422,25 +3440,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.09004739336492891</v>
+        <v>0.07758620689655173</v>
       </c>
       <c r="C66">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D66">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E66">
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="F66">
-        <v>0.76</v>
+        <v>0.9</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>384</v>
+        <v>321</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3448,25 +3466,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07511737089201878</v>
+        <v>0.06682027649769585</v>
       </c>
       <c r="C67">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D67">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E67">
-        <v>0.09</v>
+        <v>0.31</v>
       </c>
       <c r="F67">
-        <v>0.91</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>394</v>
+        <v>405</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3474,25 +3492,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.07465007776049767</v>
+        <v>0.06359649122807018</v>
       </c>
       <c r="C68">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D68">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E68">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
       <c r="F68">
-        <v>0.8</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>595</v>
+        <v>427</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3500,103 +3518,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.06876790830945559</v>
+        <v>0.06237424547283702</v>
       </c>
       <c r="C69">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D69">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E69">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="F69">
-        <v>0.92</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70">
-        <v>0.06235565819861432</v>
-      </c>
-      <c r="C70">
-        <v>27</v>
-      </c>
-      <c r="D70">
-        <v>41</v>
-      </c>
-      <c r="E70">
-        <v>0.34</v>
-      </c>
-      <c r="F70">
-        <v>0.6599999999999999</v>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71">
-        <v>0.05273833671399594</v>
-      </c>
-      <c r="C71">
-        <v>26</v>
-      </c>
-      <c r="D71">
-        <v>37</v>
-      </c>
-      <c r="E71">
-        <v>0.3</v>
-      </c>
-      <c r="F71">
-        <v>0.7</v>
-      </c>
-      <c r="G71" t="b">
-        <v>1</v>
-      </c>
-      <c r="H71">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72">
-        <v>0.03555555555555556</v>
-      </c>
-      <c r="C72">
-        <v>24</v>
-      </c>
-      <c r="D72">
-        <v>41</v>
-      </c>
-      <c r="E72">
-        <v>0.41</v>
-      </c>
-      <c r="F72">
-        <v>0.5900000000000001</v>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72">
-        <v>651</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
